--- a/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
+++ b/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Share_of_agricult" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
+++ b/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>original_title</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Macedonia</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Malta</t>
@@ -293,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -318,6 +321,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -398,6 +406,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,8 +1076,8 @@
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>74</v>
+      <c r="B59" s="13">
+        <v>3.17</v>
       </c>
       <c r="C59" s="11">
         <v>3.17</v>
@@ -1077,10 +1088,13 @@
       <c r="E59" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="11">
         <v>0.25</v>
@@ -1097,7 +1111,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="11">
         <v>2.41</v>
@@ -1114,7 +1128,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="11">
         <v>4.78</v>
@@ -1131,7 +1145,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="11">
         <v>4.03</v>
@@ -1148,7 +1162,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="11">
         <v>6.52</v>
@@ -1165,7 +1179,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="11">
         <v>1.78</v>
@@ -1182,7 +1196,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="11">
         <v>0.45</v>
@@ -1199,7 +1213,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="11">
         <v>17.14</v>
@@ -1216,7 +1230,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="11">
         <v>8.85</v>
@@ -1233,7 +1247,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="11">
         <v>9.47</v>
@@ -1250,7 +1264,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="11">
         <v>2.89</v>

--- a/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
+++ b/datastatic/datasets/online/D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Share_of_agricultural_land_used_for_ecological_agriculture_EUROSTAT_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Share_of_agricult" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>original_title</t>
   </si>
@@ -40,7 +40,7 @@
     <t>short_indicator_description$de</t>
   </si>
   <si>
-    <t>Anteiles den biologische Landwirtschaft von der gesamten für Landwirtschaft genutzten Fläche</t>
+    <t>Anteil der biologische Landwirtschaft von der gesamten für Landwirtschaft genutzten Fläche</t>
   </si>
   <si>
     <t>short_indicator_description$en</t>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Macedonia</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Malta</t>
@@ -293,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -318,6 +321,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -398,6 +406,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,8 +1076,8 @@
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>74</v>
+      <c r="B59" s="13">
+        <v>3.17</v>
       </c>
       <c r="C59" s="11">
         <v>3.17</v>
@@ -1077,10 +1088,13 @@
       <c r="E59" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="11">
         <v>0.25</v>
@@ -1097,7 +1111,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="11">
         <v>2.41</v>
@@ -1114,7 +1128,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="11">
         <v>4.78</v>
@@ -1131,7 +1145,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="11">
         <v>4.03</v>
@@ -1148,7 +1162,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="11">
         <v>6.52</v>
@@ -1165,7 +1179,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" s="11">
         <v>1.78</v>
@@ -1182,7 +1196,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="11">
         <v>0.45</v>
@@ -1199,7 +1213,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="11">
         <v>17.14</v>
@@ -1216,7 +1230,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="11">
         <v>8.85</v>
@@ -1233,7 +1247,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="11">
         <v>9.47</v>
@@ -1250,7 +1264,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="11">
         <v>2.89</v>
